--- a/Nilesh/Assignments_Nilesh.xlsx
+++ b/Nilesh/Assignments_Nilesh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pallavi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pallavi\workplace\NileshTraining\jiem\Nilesh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69872421-CAC9-4BB1-88B1-8679C9FD67BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F517B-2EF1-494E-AD2B-7521B0E6ECB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6th Apr" sheetId="1" r:id="rId1"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
@@ -1262,7 +1262,7 @@
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>56</v>
       </c>
@@ -1623,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D305A4-646F-4AD0-A1F2-9F49867906C5}">
   <dimension ref="B3:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
